--- a/data/fire_sites/snotel_fire_data.xlsx
+++ b/data/fire_sites/snotel_fire_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/dlhogan_uw_edu/Documents/Documents/GitHub/CEWA565_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/dlhogan_uw_edu/Documents/Documents/GitHub/CEWA565_project/data/fire_sites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F58443DC-77AB-41AF-95CB-4BAD2B14C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173EB9F6-4AF8-49AF-AE26-556C398D8A53}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{F58443DC-77AB-41AF-95CB-4BAD2B14C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658D6698-F35F-4437-B34B-9070FE57B74F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FFE815CC-FE0F-458C-8EE2-6E549A1C1752}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>site_name</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Pole</t>
   </si>
   <si>
-    <t>burn_severity_type</t>
-  </si>
-  <si>
-    <t>dNBR</t>
-  </si>
-  <si>
     <t>elev_ft</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Trinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Irish </t>
-  </si>
-  <si>
     <t>Rainy Pass</t>
   </si>
   <si>
@@ -109,6 +100,21 @@
   </si>
   <si>
     <t>Trough</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Irish Taylor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>burn_severity</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -505,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -514,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -525,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -534,7 +540,7 @@
         <v>37838</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>47.28107</v>
@@ -555,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -564,7 +570,7 @@
         <v>41160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3">
         <v>48.720469999999999</v>
@@ -585,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -594,7 +600,7 @@
         <v>41836</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>47.990900000000003</v>
@@ -614,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -623,7 +629,7 @@
         <v>42227</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <v>48.861330000000002</v>
@@ -644,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -653,7 +659,7 @@
         <v>41161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
         <v>44.14425</v>
